--- a/Documents/RR/ExternalDocuments/AnalisiDeiRequisiti/requisiti.xlsx
+++ b/Documents/RR/ExternalDocuments/AnalisiDeiRequisiti/requisiti.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Leaf\Documents\RR\ExternalDocuments\AnalisiDeiRequisiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vincoli" sheetId="1" r:id="rId1"/>
+    <sheet name="Navigazione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="169">
   <si>
     <t>Codice</t>
   </si>
@@ -236,15 +237,6 @@
     <t>simulare un numero di utilizzatori congruo all'ambiente scelto</t>
   </si>
   <si>
-    <t>Obbligatorio funzionale</t>
-  </si>
-  <si>
-    <t>Il prototipo permette di rilevare i beacon circostanti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capitolato </t>
-  </si>
-  <si>
     <t>Documentare le cause del fallimento</t>
   </si>
   <si>
@@ -320,7 +312,226 @@
     <t>RObbV4.1.3</t>
   </si>
   <si>
-    <t>RObbF5</t>
+    <t>RDesF5</t>
+  </si>
+  <si>
+    <t>Funzionale Desiderabile</t>
+  </si>
+  <si>
+    <t>UC1</t>
+  </si>
+  <si>
+    <t>RObbF5.1</t>
+  </si>
+  <si>
+    <t>Funzionale Obbligatorio</t>
+  </si>
+  <si>
+    <t>UC1.1</t>
+  </si>
+  <si>
+    <t>RObbF5.1.1</t>
+  </si>
+  <si>
+    <t>Funzionale obbligatorio</t>
+  </si>
+  <si>
+    <t>UC1.1.3</t>
+  </si>
+  <si>
+    <t>RObbF5.1.2</t>
+  </si>
+  <si>
+    <t>RObbF5.2</t>
+  </si>
+  <si>
+    <t>UC1.1.4</t>
+  </si>
+  <si>
+    <t>UC1.1.2</t>
+  </si>
+  <si>
+    <t>RObbF5.1.1.1</t>
+  </si>
+  <si>
+    <t>UC1.1.1</t>
+  </si>
+  <si>
+    <t>RObb5.1.2.1</t>
+  </si>
+  <si>
+    <t>RObbF5.1.1.2</t>
+  </si>
+  <si>
+    <t>RObb5.1.2.2</t>
+  </si>
+  <si>
+    <t>UC1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obbligatorio Funzionale </t>
+  </si>
+  <si>
+    <t>RObbF5.3</t>
+  </si>
+  <si>
+    <t>a questo punto bisogna richiedere l'attivazione dei sensori</t>
+  </si>
+  <si>
+    <t>funzionalità di navigazione</t>
+  </si>
+  <si>
+    <t>funzionalità di ricerca della destinazione</t>
+  </si>
+  <si>
+    <t>digitazione del nome di una destinazione</t>
+  </si>
+  <si>
+    <t>selezione di un'opzione tra i risultati della ricerca</t>
+  </si>
+  <si>
+    <t>ricerca della destinazione per categoria</t>
+  </si>
+  <si>
+    <t>ricerca della destinazione per nome</t>
+  </si>
+  <si>
+    <t>selezione di una categoria di luoghi</t>
+  </si>
+  <si>
+    <t>selezione di un luogo nella categoria selezionata</t>
+  </si>
+  <si>
+    <t>conferma della destinazione scelta</t>
+  </si>
+  <si>
+    <t>avvio della navigazione</t>
+  </si>
+  <si>
+    <t>richiesta attivazione dei sensori</t>
+  </si>
+  <si>
+    <t>richiesta attivazione della localizzazione</t>
+  </si>
+  <si>
+    <t>richiesta attivazione del bluetooth</t>
+  </si>
+  <si>
+    <t>RObbF5.3.1.2</t>
+  </si>
+  <si>
+    <t>RObbF5.3.1.1</t>
+  </si>
+  <si>
+    <t>RobbF5.3.1</t>
+  </si>
+  <si>
+    <t>UC1.3</t>
+  </si>
+  <si>
+    <t>UC1.4</t>
+  </si>
+  <si>
+    <t>RObbF5.4</t>
+  </si>
+  <si>
+    <t>interruzione della navigazione</t>
+  </si>
+  <si>
+    <t>Desiderabile funzionale</t>
+  </si>
+  <si>
+    <t>navigazione fino al prossimo beacon</t>
+  </si>
+  <si>
+    <t>RDesF5.3.2</t>
+  </si>
+  <si>
+    <t>RObbF5.3.2.1</t>
+  </si>
+  <si>
+    <t>RDesF5.3.2.2</t>
+  </si>
+  <si>
+    <t>RDesF5.3.2.2.1</t>
+  </si>
+  <si>
+    <t>accesso indicazioni dettagliate per raggiungere la prossima area</t>
+  </si>
+  <si>
+    <t>accesso indicazioni basilari per raggiungere la prossima area</t>
+  </si>
+  <si>
+    <t>accesso foto prossima area</t>
+  </si>
+  <si>
+    <t>UC1.4.1</t>
+  </si>
+  <si>
+    <t>RDesF5.3.2.2.2</t>
+  </si>
+  <si>
+    <t>accesso indicazione testuale estesa</t>
+  </si>
+  <si>
+    <t>UC1.4.2</t>
+  </si>
+  <si>
+    <t>RDesF5.3.2.2.3</t>
+  </si>
+  <si>
+    <t>accesso lista indicazioni</t>
+  </si>
+  <si>
+    <t>UC1.4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desiderabile Funzionale </t>
+  </si>
+  <si>
+    <t>Accesso alle informazioni</t>
+  </si>
+  <si>
+    <t>UC2</t>
+  </si>
+  <si>
+    <t>RDesF6</t>
+  </si>
+  <si>
+    <t>opzionale funzionale</t>
+  </si>
+  <si>
+    <t>accesso informazioni edificio</t>
+  </si>
+  <si>
+    <t>UC2.1</t>
+  </si>
+  <si>
+    <t>desiderabile funzionale</t>
+  </si>
+  <si>
+    <t>accesso informazioni limitrofe</t>
+  </si>
+  <si>
+    <t>UC2.2</t>
+  </si>
+  <si>
+    <t>accesso informazioni riguardanti le vicinanze rispetto alla posizione dell'utente</t>
+  </si>
+  <si>
+    <t>ROpzF6.1</t>
+  </si>
+  <si>
+    <t>RDesF6.2</t>
+  </si>
+  <si>
+    <t>RDesF6.2.1</t>
+  </si>
+  <si>
+    <t>accesso informazioni riguardanti l'edificio in cui si trova</t>
+  </si>
+  <si>
+    <t>ROpzF6.2.2</t>
   </si>
 </sst>
 </file>
@@ -661,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -858,7 +1069,7 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -872,7 +1083,7 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>63</v>
@@ -886,30 +1097,30 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -942,7 +1153,7 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -959,7 +1170,7 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -987,7 +1198,7 @@
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1001,7 +1212,7 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
@@ -1015,7 +1226,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -1029,7 +1240,7 @@
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>5</v>
@@ -1043,7 +1254,7 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -1057,7 +1268,7 @@
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1071,7 +1282,7 @@
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1085,7 +1296,7 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
@@ -1099,7 +1310,7 @@
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>65</v>
@@ -1113,7 +1324,7 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>68</v>
@@ -1186,7 +1397,7 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -1220,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -1248,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -1262,25 +1473,17 @@
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -1622,4 +1825,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>